--- a/biology/Médecine/Lunatique_(trait_de_caractère)/Lunatique_(trait_de_caractère).xlsx
+++ b/biology/Médecine/Lunatique_(trait_de_caractère)/Lunatique_(trait_de_caractère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lunatique_(trait_de_caract%C3%A8re)</t>
+          <t>Lunatique_(trait_de_caractère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lunatique (du bas latin lunaticus, dérivé de luna[1]) est un adjectif utilisé en français pour caractériser une personne « fantasque, capricieuse, d'humeur changeante, qui change d'avis »[2]. Ces sautes d'humeur peuvent avoir pour origine un trouble de l'humeur et/ou de la personnalité chez l'individu, et peuvent survenir à tout moment, souvent pour une raison méconnue. Mais il ne s'agit pas nécessairement d'un trouble psychiatrique : on peut être lunatique, c'est-à-dire d'humeur changeante, tout en étant par ailleurs neurotypique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lunatique (du bas latin lunaticus, dérivé de luna) est un adjectif utilisé en français pour caractériser une personne « fantasque, capricieuse, d'humeur changeante, qui change d'avis ». Ces sautes d'humeur peuvent avoir pour origine un trouble de l'humeur et/ou de la personnalité chez l'individu, et peuvent survenir à tout moment, souvent pour une raison méconnue. Mais il ne s'agit pas nécessairement d'un trouble psychiatrique : on peut être lunatique, c'est-à-dire d'humeur changeante, tout en étant par ailleurs neurotypique.
 En anglais, en revanche, le terme lunatic n'a pas la même définition (les deux mots sont des faux-amis) : c'est plutôt l'équivalent de « fou » ou de « dément » en français. Là encore, il ne s'agit pas d'un terme de psychiatrie à proprement parler.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lunatique_(trait_de_caract%C3%A8re)</t>
+          <t>Lunatique_(trait_de_caractère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lunatique signifiait autrefois épileptique, puis, jusqu'au XIXe siècle, « soumis aux influences de la Lune » et « sujet à des accès de folie ». Le sens actuel de « capricieux » apparaît au XIXe siècle :
 « Il avait su faire admettre […] ses boutades, son élégance de vieux gentilhomme, son monocle, et jusqu'à son feutre conquérant ! Un type enthousiaste, lunatique, extravagant […] »
